--- a/notes/unique_ais_present.xlsx
+++ b/notes/unique_ais_present.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcgov-my.sharepoint.com/personal/john_phelan_gov_bc_ca/Documents/R_projects/SAR_prioritization_model/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{196274FD-B1F9-4E94-BB88-6C690ABFC001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{113DD29E-3C8E-4AD7-BEC0-13C815027A2A}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="8_{196274FD-B1F9-4E94-BB88-6C690ABFC001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6EBF51C-3192-48A6-BB83-EBBC2FC30340}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{26ADD424-4FA5-4EA8-BF94-F3324F116E04}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
   <si>
     <t>"Largemouth bass"</t>
   </si>
@@ -151,6 +151,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -473,7 +477,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,11 +508,17 @@
       <c r="A3" t="s">
         <v>11</v>
       </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -594,6 +604,9 @@
       <c r="A15" t="s">
         <v>18</v>
       </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -607,6 +620,9 @@
       <c r="A17" t="s">
         <v>6</v>
       </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -627,6 +643,9 @@
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
